--- a/notebooks/TBL1XR1/input/TBL1XR1_PRPTS_individuals.xlsx
+++ b/notebooks/TBL1XR1/input/TBL1XR1_PRPTS_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TBL1XR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C82C2B-99D5-AF43-AA31-A47D5EB661D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DBE760-E99E-4941-8CB4-77B0A9BD660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="29080" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
